--- a/medicine/Sexualité et sexologie/Darker_(roman)/Darker_(roman).xlsx
+++ b/medicine/Sexualité et sexologie/Darker_(roman)/Darker_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Darker : Cinquante Nuances plus sombres par Christian (titre original : Darker: Fifty Shades Darker as Told by Christian) est une romance érotique écrite par la britannique E. L. James et parue en novembre 2017 aux États-Unis puis traduite en français et publiée la même année.
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une liaison passionnée qui s’est achevée dans les larmes et les reproches, Christian Grey est incapable d’oublier Anastasia Steele.  Il l’a dans la peau. Décidé à regagner son amour, il s’efforce de réprimer ses désirs les plus troubles et son besoin de tout contrôler pour enfin aimer Ana selon ses conditions.
 Hélas, son enfance continue de le hanter, d’autant que Christian comprend que Jack Hyde, le patron sournois d’Ana, la veut clairement pour lui seul.
@@ -547,7 +561,9 @@
           <t>Série Cinquante Nuances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cinquante Nuances de Grey, Jean-Claude Lattès, 2012 ((en) Fifty Shades of Grey, Vintage Books, 2012), trad. Denyse Beaulieu  (ISBN 978-2-7096-4252-1)
 Cinquante Nuances plus sombres, Jean-Claude Lattès, 2013 ((en) Fifty Shades Darker, Vintage Books, 2012), trad. Aurélie Tronchet  (ISBN 978-2-7096-4253-8)
@@ -582,7 +598,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>E. L. James, Darker: Fifty Shades Darker as Told by Christian, Vintage Books, 28 novembre 2017, 560 p.  (ISBN 978-0385543910)
 E. L. James, Darker, Jean-Claude Lattès, 6 décembre 2017, trad. Denyse Beaulieu, Dominique Defert et Carole Delporte, 560 p.  (ISBN 978-2-7096-6178-2)
